--- a/data/trans_dic/P25A$rendimiento-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Edad-trans_dic.xlsx
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02525843041559983</v>
+        <v>0.02573268067959741</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3774267208731404</v>
+        <v>0.3814378246841096</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3567350675695515</v>
+        <v>0.3464141898725626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4391353268938211</v>
+        <v>0.4588625314231709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2578390643888578</v>
+        <v>0.2590760362249209</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4009364638305171</v>
+        <v>0.3330596503387114</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3029421405991718</v>
+        <v>0.2963167263229126</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2239839641985429</v>
+        <v>0.2243451310241525</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2489679429063102</v>
+        <v>0.2729658429514373</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2716349220436299</v>
+        <v>0.267055894989695</v>
       </c>
     </row>
     <row r="7">
@@ -787,24 +787,24 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02467725443667609</v>
+        <v>0.02510882245953415</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02095269631323341</v>
+        <v>0.02111778128377015</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
-        <v>0.03108329429852015</v>
+        <v>0.03110440775014545</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01164549027983837</v>
+        <v>0.01155364442574666</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03571937867980596</v>
+        <v>0.03794553154413502</v>
       </c>
     </row>
     <row r="9">
@@ -815,27 +815,27 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1330819454636428</v>
+        <v>0.127401882585034</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1362422037791584</v>
+        <v>0.1504615554512737</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2136412371373996</v>
+        <v>0.1977432662273341</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.1624627763149079</v>
+        <v>0.1763829389390029</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04614136430109318</v>
+        <v>0.04618829755084936</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06702062974352163</v>
+        <v>0.06596616684617002</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1482420049917559</v>
+        <v>0.1497309472720887</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01188366484975157</v>
+        <v>0.01183815601179288</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008037179232958854</v>
+        <v>0.008002014329511019</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01617141473070846</v>
+        <v>0.01772158005757385</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01567873507169992</v>
+        <v>0.01625000171112861</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01991266647800755</v>
+        <v>0.01956736090747387</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01655237881028674</v>
+        <v>0.01648030614435717</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.007007678643611383</v>
+        <v>0.006960840566626104</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09913880692421001</v>
+        <v>0.0873963361196699</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06978143779947732</v>
+        <v>0.06819867825867511</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1031981494976889</v>
+        <v>0.09708444188915323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1429020420497331</v>
+        <v>0.1399100543542493</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09525729642447957</v>
+        <v>0.09012019857237603</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07980243858957607</v>
+        <v>0.08036532787991732</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08749372722491558</v>
+        <v>0.09479392556520153</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06687376368639544</v>
+        <v>0.06674982070443058</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06753333486839094</v>
+        <v>0.06427527608638835</v>
       </c>
     </row>
     <row r="13">
@@ -995,28 +995,28 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.01283356539479925</v>
+        <v>0.01246107729635794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.008951242150175157</v>
+        <v>0.009126381006938664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04972448272734291</v>
+        <v>0.04735208195868708</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01180395531381911</v>
+        <v>0.01093359457079904</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02266392898572036</v>
+        <v>0.02322030631714311</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01561413118780771</v>
+        <v>0.01571593895664831</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01984552200191091</v>
+        <v>0.01930560987532575</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02132769192973172</v>
+        <v>0.0204648737376311</v>
       </c>
     </row>
     <row r="15">
@@ -1028,28 +1028,28 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.075648345069546</v>
+        <v>0.07487311590757864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08539648401679004</v>
+        <v>0.09146921836224302</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2165265213758489</v>
+        <v>0.2180827562487943</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1088448346782104</v>
+        <v>0.1027847040818288</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1313524953093221</v>
+        <v>0.1350436047150101</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07052877882117742</v>
+        <v>0.07113621737327511</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06784072635350023</v>
+        <v>0.0716380421133047</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08864372410704466</v>
+        <v>0.07868881903434533</v>
       </c>
     </row>
     <row r="16">
@@ -1099,13 +1099,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01647477649459274</v>
+        <v>0.02230346195936504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.007744117698191228</v>
+        <v>0.00753671575435933</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02201765504983175</v>
+        <v>0.02073386721075129</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01989144035247374</v>
+        <v>0.02011021084481595</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0097535205891356</v>
+        <v>0.008538330458208411</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0237093648683098</v>
+        <v>0.02324472847277041</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09174503910266817</v>
+        <v>0.09951018023918519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06515728249966528</v>
+        <v>0.06771788827870448</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1273722704077555</v>
+        <v>0.1143631572762191</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2718901902581863</v>
+        <v>0.2576274298728217</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1132117254618188</v>
+        <v>0.1026144280503754</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1330488862448535</v>
+        <v>0.116667382692859</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09285894174458226</v>
+        <v>0.08894869626489316</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05513821928414225</v>
+        <v>0.05484536938723109</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1010930082500652</v>
+        <v>0.09755990748025557</v>
       </c>
     </row>
     <row r="19">
@@ -1208,13 +1208,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0214017461323351</v>
+        <v>0.02095221764801469</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01897597373807066</v>
+        <v>0.01889095510047913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02242219095957023</v>
+        <v>0.02293732238040792</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="inlineStr"/>
@@ -1222,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0142532473332956</v>
+        <v>0.01415827927295312</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01794706938221348</v>
+        <v>0.02281125904242082</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02534695795715266</v>
+        <v>0.02509094539656149</v>
       </c>
     </row>
     <row r="21">
@@ -1239,27 +1239,27 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09017991717320939</v>
+        <v>0.09772592420976019</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09818914396269791</v>
+        <v>0.09702174694572811</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1028151661052571</v>
+        <v>0.1070123462139916</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.2186020810899951</v>
+        <v>0.1992951870142086</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0820841159809864</v>
+        <v>0.08017490923778892</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09302686695601653</v>
+        <v>0.09191069187352</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09690950547275347</v>
+        <v>0.09380580854601286</v>
       </c>
     </row>
     <row r="22">
@@ -1309,25 +1309,25 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007438177204594424</v>
+        <v>0.007647907715837734</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.006527970335445827</v>
+        <v>0.006304468144842107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02143598769176598</v>
+        <v>0.02173228483947265</v>
       </c>
       <c r="F23" s="5" t="inlineStr"/>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="inlineStr"/>
       <c r="I23" s="5" t="n">
-        <v>0.006994618023052248</v>
+        <v>0.006934135048053507</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.006202125895490028</v>
+        <v>0.006131805703881525</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.02118144494075984</v>
+        <v>0.01597512620222021</v>
       </c>
     </row>
     <row r="24">
@@ -1338,25 +1338,25 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06983984877409558</v>
+        <v>0.07213970929494329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06010404650657854</v>
+        <v>0.05920718637133544</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09988917246457266</v>
+        <v>0.1062592667105774</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="n">
-        <v>0.06844416712327997</v>
+        <v>0.06725529585608288</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06067077374623343</v>
+        <v>0.05674796721282231</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09542283741862564</v>
+        <v>0.09469238854757704</v>
       </c>
     </row>
     <row r="25">
@@ -1406,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02031758320505778</v>
+        <v>0.01966821497227282</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02518956602588276</v>
+        <v>0.02566703018773649</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0338216377445566</v>
+        <v>0.03509895880268631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02922181753072649</v>
+        <v>0.02872979878741044</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01564914951025814</v>
+        <v>0.01657551846487611</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02984546885040462</v>
+        <v>0.02941134715494643</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02656607538460742</v>
+        <v>0.02683798294386944</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02653817855252924</v>
+        <v>0.02642032266392394</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03746892023641234</v>
+        <v>0.0365737268327407</v>
       </c>
     </row>
     <row r="27">
@@ -1441,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04721505152970952</v>
+        <v>0.04728025304612966</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.05324133762138177</v>
+        <v>0.05264629168448452</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06953077507145611</v>
+        <v>0.07294218304500849</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0834174359535607</v>
+        <v>0.08081627217934403</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.05466674580952159</v>
+        <v>0.0580768784410002</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.07506472886320655</v>
+        <v>0.07573568030737318</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0516434544043517</v>
+        <v>0.05147121480998889</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0485656747872707</v>
+        <v>0.04756860992195402</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0658044304539854</v>
+        <v>0.06693812984380643</v>
       </c>
     </row>
     <row r="28">
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>910</v>
+        <v>927</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1732,31 +1732,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4260</v>
+        <v>4306</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5988</v>
+        <v>5815</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>4149</v>
+        <v>4335</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3982</v>
+        <v>4001</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7710</v>
+        <v>6404</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4998</v>
+        <v>4889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5987</v>
+        <v>5997</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8966</v>
+        <v>9831</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7048</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="8">
@@ -1844,24 +1844,24 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1795</v>
+        <v>1826</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1812</v>
+        <v>1798</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3806</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="11">
@@ -1872,27 +1872,27 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5251</v>
+        <v>5027</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9910</v>
+        <v>10944</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10382</v>
+        <v>9609</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>9418</v>
+        <v>10225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>5053</v>
+        <v>5058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>10428</v>
+        <v>10264</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15797</v>
+        <v>15956</v>
       </c>
     </row>
     <row r="12">
@@ -1977,31 +1977,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1072</v>
+        <v>1174</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1946</v>
+        <v>2017</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3011</v>
+        <v>2959</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3914</v>
+        <v>3897</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1137</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="15">
@@ -2012,31 +2012,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8422</v>
+        <v>7425</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7841</v>
+        <v>7663</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7670</v>
+        <v>7215</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9469</v>
+        <v>9271</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11821</v>
+        <v>11183</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7018</v>
+        <v>7067</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>13231</v>
+        <v>14334</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15813</v>
+        <v>15783</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10958</v>
+        <v>10429</v>
       </c>
     </row>
     <row r="16">
@@ -2122,28 +2122,28 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>2181</v>
+        <v>2118</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2921</v>
+        <v>2782</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1081</v>
+        <v>1001</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2000</v>
+        <v>2049</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2878</v>
+        <v>2896</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5190</v>
+        <v>5049</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4189</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="19">
@@ -2155,28 +2155,28 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>12855</v>
+        <v>12723</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>9239</v>
+        <v>9896</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12720</v>
+        <v>12812</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9969</v>
+        <v>9414</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11589</v>
+        <v>11915</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12998</v>
+        <v>13110</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17742</v>
+        <v>18735</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>17411</v>
+        <v>15456</v>
       </c>
     </row>
     <row r="20">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2111</v>
+        <v>2858</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2928</v>
+        <v>2758</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
@@ -2279,13 +2279,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2895</v>
+        <v>2927</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1873</v>
+        <v>1639</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4503</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="23">
@@ -2296,31 +2296,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11755</v>
+        <v>12750</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9138</v>
+        <v>9497</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>16940</v>
+        <v>15210</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4741</v>
+        <v>4493</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5860</v>
+        <v>5311</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7573</v>
+        <v>6641</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>13517</v>
+        <v>12948</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10587</v>
+        <v>10530</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>19199</v>
+        <v>18528</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2609</v>
+        <v>2554</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3084</v>
+        <v>3071</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2763</v>
+        <v>2826</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
@@ -2419,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1931</v>
+        <v>1918</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3108</v>
+        <v>3950</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>3776</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="27">
@@ -2436,27 +2436,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10993</v>
+        <v>11913</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15960</v>
+        <v>15770</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12669</v>
+        <v>13186</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5632</v>
+        <v>5134</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11118</v>
+        <v>10859</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>16109</v>
+        <v>15916</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>14438</v>
+        <v>13976</v>
       </c>
     </row>
     <row r="28">
@@ -2541,25 +2541,25 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>924</v>
+        <v>892</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2331</v>
+        <v>2363</v>
       </c>
       <c r="F30" s="6" t="inlineStr"/>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="inlineStr"/>
       <c r="I30" s="6" t="n">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2356</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="31">
@@ -2570,25 +2570,25 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7913</v>
+        <v>8173</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8503</v>
+        <v>8377</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10861</v>
+        <v>11553</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="n">
-        <v>8387</v>
+        <v>8241</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>8972</v>
+        <v>8392</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10613</v>
+        <v>10532</v>
       </c>
     </row>
     <row r="32">
@@ -2673,31 +2673,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>12690</v>
+        <v>12284</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>20557</v>
+        <v>20946</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>20479</v>
+        <v>21252</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>7327</v>
+        <v>7204</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>6049</v>
+        <v>6407</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>10022</v>
+        <v>9877</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>23253</v>
+        <v>23491</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>31916</v>
+        <v>31774</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>35270</v>
+        <v>34427</v>
       </c>
     </row>
     <row r="35">
@@ -2708,31 +2708,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>29489</v>
+        <v>29530</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>43449</v>
+        <v>42963</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>42101</v>
+        <v>44166</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>20916</v>
+        <v>20263</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>21132</v>
+        <v>22450</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>25207</v>
+        <v>25433</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>45204</v>
+        <v>45053</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>58407</v>
+        <v>57208</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>61942</v>
+        <v>63009</v>
       </c>
     </row>
     <row r="36">
